--- a/biology/Botanique/Xylopia_aethiopica/Xylopia_aethiopica.xlsx
+++ b/biology/Botanique/Xylopia_aethiopica/Xylopia_aethiopica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylopia aethiopica, le Poivre de Guinée ou Kili, est une espèce d'arbres persistants de la famille des Annonaceae dont les fruits séchés sont utilisés comme épice.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en Afrique tropicale où elle pousse le long des rivières dans des zones arides de savane.
 Elle se rencontre en Angola, au Bénin, au Cameroun, en Côte d'Ivoire, en Guinée, au Gabon, en Gambie, en Guinée-Bissau, au Liberia, au Mozambique, au Nigeria, en Ouganda, en République centrafricaine, à Sao Tomé-et-Principe, au Sénégal, en Sierra Leone, au Soudan, en Tanzanie, au Togo, aux Congos et en Zambie.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylopia aethiopica mesure jusqu'à plus de 20 m de hauteur.
 </t>
@@ -574,11 +590,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fruit séché est utilisé comme épice et pour ses vertus médicinales, en particulier contre la grippe, les bronchites et la dysenterie[réf. nécessaire].
 Il est aussi conseillé pour soulager les pathologies liées aux yeux.
-Il est connu en français sous différents noms : kili, graines de Sélim, piment noir, poivre de Guinée, ngani-koun[1]... Au Sénégal, on l'appelle Diar et il sert à parfumer le café Touba, boisson traditionnelle des Mourides, mais dont la consommation s'étend dans les villes au-delà de la confrérie.
+Il est connu en français sous différents noms : kili, graines de Sélim, piment noir, poivre de Guinée, ngani-koun... Au Sénégal, on l'appelle Diar et il sert à parfumer le café Touba, boisson traditionnelle des Mourides, mais dont la consommation s'étend dans les villes au-delà de la confrérie.
 </t>
         </is>
       </c>
